--- a/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00001.xlsx
+++ b/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00001.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="1920" yWindow="1660" windowWidth="24820" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="102">
   <si>
     <t>Ref Des</t>
   </si>
@@ -179,12 +184,6 @@
     <t>Induction ID</t>
   </si>
   <si>
-    <t>GI03FLMB-FM001-00-ENG000000</t>
-  </si>
-  <si>
-    <t>GI03FLMB-00001-ENG</t>
-  </si>
-  <si>
     <t>The serial number used here is bogus, pending identification of the real serial number.</t>
   </si>
   <si>
@@ -250,6 +249,84 @@
   <si>
     <t>039° 13.81' W</t>
   </si>
+  <si>
+    <t>GI03FLMB-RIM01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RIS01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>AQD 11973</t>
+  </si>
+  <si>
+    <t>AQD 11974</t>
+  </si>
+  <si>
+    <t>AQD 11976</t>
+  </si>
+  <si>
+    <t>AQD 11981</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RI000-00-CTDMOH000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RI000-00-CTDMOH700</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RI000-00-CTDMOH400</t>
+  </si>
+  <si>
+    <t>GI03FLMB-RI000-00-CTDMOH100</t>
+  </si>
+  <si>
+    <t>37-12226</t>
+  </si>
+  <si>
+    <t>37-12219</t>
+  </si>
+  <si>
+    <t>37-12218</t>
+  </si>
+  <si>
+    <t>37-12224</t>
+  </si>
+  <si>
+    <t>37-11612</t>
+  </si>
+  <si>
+    <t>37-11609</t>
+  </si>
+  <si>
+    <t>37-11603</t>
+  </si>
+  <si>
+    <t>37-11607</t>
+  </si>
+  <si>
+    <t>37-11600</t>
+  </si>
+  <si>
+    <t>37-11535</t>
+  </si>
+  <si>
+    <t>37-11593</t>
+  </si>
+  <si>
+    <t>37-11594</t>
+  </si>
+  <si>
+    <t>37-11598</t>
+  </si>
+  <si>
+    <t>37-12310</t>
+  </si>
+  <si>
+    <t>37-12311</t>
+  </si>
+  <si>
+    <t>37-12223</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -312,6 +389,32 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -397,12 +500,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -456,12 +615,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,17 +626,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="59">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="TableStyleLight1" xfId="2"/>
@@ -855,29 +1083,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1"/>
-    <col min="2" max="2" width="15.7109375" style="1"/>
-    <col min="3" max="3" width="15.7109375" style="2"/>
-    <col min="4" max="4" width="11.28515625" style="3"/>
-    <col min="5" max="5" width="11.28515625" style="4"/>
-    <col min="6" max="6" width="11" style="3"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1"/>
-    <col min="10" max="10" width="11.5703125" style="1"/>
-    <col min="11" max="11" width="18.5703125" style="1"/>
-    <col min="12" max="12" width="13.42578125" style="1"/>
-    <col min="13" max="13" width="12.5703125" style="1"/>
-    <col min="14" max="1025" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="8.83203125" style="4"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="42">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="16" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -928,12 +1150,14 @@
       <c r="E2" s="15">
         <v>0.55833333333333302</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="24">
+        <v>42236</v>
+      </c>
       <c r="G2" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I2" s="13">
         <v>2825</v>
@@ -942,75 +1166,79 @@
         <v>13</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK87"/>
+  <dimension ref="A1:AMK100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="17"/>
-    <col min="2" max="2" width="19.5703125" style="17"/>
-    <col min="3" max="3" width="17.28515625" style="17"/>
-    <col min="4" max="4" width="18.42578125" style="17"/>
-    <col min="5" max="5" width="27" style="17"/>
-    <col min="6" max="6" width="22.42578125" style="17"/>
-    <col min="7" max="7" width="67.7109375" style="17"/>
-    <col min="8" max="1025" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="24.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="28.33203125" style="17" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="28">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>57</v>
+    <row r="2" spans="1:1024">
+      <c r="A2" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>1107</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>1.6950000000000001E-6</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -2034,23 +2262,23 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>57</v>
+    <row r="3" spans="1:1024">
+      <c r="A3" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>1107</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>52</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -3074,23 +3302,23 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>57</v>
+    <row r="4" spans="1:1024">
+      <c r="A4" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>1107</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="G4"/>
@@ -4112,23 +4340,23 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>57</v>
+    <row r="5" spans="1:1024">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>1107</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>59</v>
       </c>
       <c r="G5"/>
@@ -5150,23 +5378,23 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>57</v>
+    <row r="6" spans="1:1024">
+      <c r="A6" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>1107</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>9.0300000000000005E-2</v>
       </c>
       <c r="G6"/>
@@ -6188,23 +6416,23 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>57</v>
+    <row r="7" spans="1:1024">
+      <c r="A7" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>1107</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>47</v>
       </c>
       <c r="G7"/>
@@ -7226,23 +7454,23 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>57</v>
+    <row r="8" spans="1:1024">
+      <c r="A8" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>1107</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>124</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -8266,23 +8494,23 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>57</v>
+    <row r="9" spans="1:1024">
+      <c r="A9" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>1107</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>700</v>
       </c>
       <c r="G9" s="17" t="s">
@@ -9306,23 +9534,23 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>57</v>
+    <row r="10" spans="1:1024">
+      <c r="A10" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>1107</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>1.0760000000000001</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -10346,23 +10574,23 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>57</v>
+    <row r="11" spans="1:1024">
+      <c r="A11" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>1107</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>3.9E-2</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -11386,23 +11614,23 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>75</v>
+    <row r="12" spans="1:1024">
+      <c r="A12" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>1</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>17533</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -12426,23 +12654,23 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>75</v>
+    <row r="13" spans="1:1024">
+      <c r="A13" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>1</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="18">
         <v>2229</v>
       </c>
       <c r="G13"/>
@@ -13464,23 +13692,23 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>75</v>
+    <row r="14" spans="1:1024">
+      <c r="A14" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>1</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>101</v>
       </c>
       <c r="G14"/>
@@ -14502,23 +14730,23 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>75</v>
+    <row r="15" spans="1:1024">
+      <c r="A15" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>38502</v>
       </c>
       <c r="G15"/>
@@ -15540,23 +15768,23 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>75</v>
+    <row r="16" spans="1:1024">
+      <c r="A16" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16"/>
@@ -16578,23 +16806,23 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>75</v>
+    <row r="17" spans="1:1024">
+      <c r="A17" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>1</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>0</v>
       </c>
       <c r="G17"/>
@@ -17616,23 +17844,23 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>75</v>
+    <row r="18" spans="1:1024">
+      <c r="A18" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>1</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>35</v>
       </c>
       <c r="G18" s="17" t="s">
@@ -18656,23 +18884,23 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:1024">
+      <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>1</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>126</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -19696,23 +19924,23 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:1024">
+      <c r="A20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>1</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>126</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -20736,23 +20964,23 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:1024">
+      <c r="A21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>126</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G21"/>
@@ -21774,23 +22002,23 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>58</v>
+    <row r="22" spans="1:1024">
+      <c r="A22" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="19">
         <v>1</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>18353</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G22" s="17" t="s">
@@ -22814,23 +23042,23 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>58</v>
+    <row r="23" spans="1:1024">
+      <c r="A23" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <v>18353</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G23"/>
@@ -23852,23 +24080,23 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>58</v>
+    <row r="24" spans="1:1024">
+      <c r="A24" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="19">
         <v>1</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>18353</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G24"/>
@@ -24890,23 +25118,23 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>58</v>
+    <row r="25" spans="1:1024">
+      <c r="A25" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="19">
         <v>1</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="18">
         <v>18353</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G25"/>
@@ -25928,23 +26156,23 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>58</v>
+    <row r="26" spans="1:1024">
+      <c r="A26" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="19">
         <v>1</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>18353</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="18">
         <v>500000</v>
       </c>
       <c r="G26"/>
@@ -26966,23 +27194,23 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>58</v>
+    <row r="27" spans="1:1024">
+      <c r="A27" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <v>1</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>18353</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>0.45</v>
       </c>
       <c r="G27"/>
@@ -28004,23 +28232,23 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>58</v>
+    <row r="28" spans="1:1024">
+      <c r="A28" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <v>1</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>18353</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>0.45</v>
       </c>
       <c r="G28"/>
@@ -29042,23 +29270,23 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>58</v>
+    <row r="29" spans="1:1024">
+      <c r="A29" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>1</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>18353</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>0.45</v>
       </c>
       <c r="G29"/>
@@ -30080,23 +30308,23 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>58</v>
+    <row r="30" spans="1:1024">
+      <c r="A30" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="19">
         <v>1</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>18353</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>0.45</v>
       </c>
       <c r="G30"/>
@@ -31118,23 +31346,23 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>59</v>
+    <row r="31" spans="1:1024">
+      <c r="A31" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="19">
         <v>1</v>
       </c>
-      <c r="D31" s="20">
-        <v>11612</v>
+      <c r="D31" s="27" t="s">
+        <v>90</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>1450</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -32158,23 +32386,23 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>59</v>
+    <row r="32" spans="1:1024">
+      <c r="A32" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="19">
         <v>1</v>
       </c>
-      <c r="D32" s="20">
-        <v>11612</v>
+      <c r="D32" s="27" t="s">
+        <v>90</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G32"/>
@@ -33196,23 +33424,23 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>59</v>
+    <row r="33" spans="1:1024">
+      <c r="A33" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="19">
         <v>1</v>
       </c>
-      <c r="D33" s="20">
-        <v>11612</v>
+      <c r="D33" s="27" t="s">
+        <v>90</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G33"/>
@@ -34234,24 +34462,24 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>59</v>
+    <row r="34" spans="1:1024">
+      <c r="A34" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="19">
         <v>1</v>
       </c>
-      <c r="D34" s="20">
-        <v>11612</v>
+      <c r="D34" s="27" t="s">
+        <v>90</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="20">
-        <v>57</v>
+      <c r="F34" s="27">
+        <v>12</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -35272,23 +35500,23 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>60</v>
+    <row r="35" spans="1:1024">
+      <c r="A35" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="19">
         <v>1</v>
       </c>
-      <c r="D35" s="20">
-        <v>11609</v>
+      <c r="D35" s="27" t="s">
+        <v>91</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="18">
         <v>1450</v>
       </c>
       <c r="G35" s="17" t="s">
@@ -36312,23 +36540,23 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>60</v>
+    <row r="36" spans="1:1024">
+      <c r="A36" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="19">
         <v>1</v>
       </c>
-      <c r="D36" s="20">
-        <v>11609</v>
+      <c r="D36" s="27" t="s">
+        <v>91</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G36"/>
@@ -37350,23 +37578,23 @@
       <c r="AMI36"/>
       <c r="AMJ36"/>
     </row>
-    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>60</v>
+    <row r="37" spans="1:1024">
+      <c r="A37" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="19">
         <v>1</v>
       </c>
-      <c r="D37" s="20">
-        <v>11609</v>
+      <c r="D37" s="27" t="s">
+        <v>91</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G37"/>
@@ -38388,24 +38616,24 @@
       <c r="AMI37"/>
       <c r="AMJ37"/>
     </row>
-    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>60</v>
+    <row r="38" spans="1:1024">
+      <c r="A38" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="19">
         <v>1</v>
       </c>
-      <c r="D38" s="20">
-        <v>11609</v>
+      <c r="D38" s="27" t="s">
+        <v>91</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="20">
-        <v>20</v>
+      <c r="F38" s="27">
+        <v>69</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -39426,23 +39654,23 @@
       <c r="AMI38"/>
       <c r="AMJ38"/>
     </row>
-    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>61</v>
+    <row r="39" spans="1:1024">
+      <c r="A39" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="19">
         <v>1</v>
       </c>
-      <c r="D39" s="20">
-        <v>12310</v>
+      <c r="D39" s="27" t="s">
+        <v>99</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="18">
         <v>1450</v>
       </c>
       <c r="G39" s="17" t="s">
@@ -40466,23 +40694,23 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>61</v>
+    <row r="40" spans="1:1024">
+      <c r="A40" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="19">
         <v>1</v>
       </c>
-      <c r="D40" s="20">
-        <v>12310</v>
+      <c r="D40" s="27" t="s">
+        <v>99</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G40"/>
@@ -41504,23 +41732,23 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>61</v>
+    <row r="41" spans="1:1024">
+      <c r="A41" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="19">
         <v>1</v>
       </c>
-      <c r="D41" s="20">
-        <v>12310</v>
+      <c r="D41" s="27" t="s">
+        <v>99</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G41"/>
@@ -42542,24 +42770,24 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>61</v>
+    <row r="42" spans="1:1024">
+      <c r="A42" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="19">
         <v>1</v>
       </c>
-      <c r="D42" s="20">
-        <v>12310</v>
+      <c r="D42" s="27" t="s">
+        <v>99</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="20">
-        <v>60</v>
+      <c r="F42" s="27">
+        <v>50</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -43580,23 +43808,23 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>62</v>
+    <row r="43" spans="1:1024">
+      <c r="A43" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="19">
         <v>1</v>
       </c>
-      <c r="D43" s="20">
-        <v>11535</v>
+      <c r="D43" s="27" t="s">
+        <v>95</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="18">
         <v>1450</v>
       </c>
       <c r="G43" s="17" t="s">
@@ -44620,23 +44848,23 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>62</v>
+    <row r="44" spans="1:1024">
+      <c r="A44" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="19">
         <v>1</v>
       </c>
-      <c r="D44" s="20">
-        <v>11535</v>
+      <c r="D44" s="27" t="s">
+        <v>95</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G44"/>
@@ -45658,23 +45886,23 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>62</v>
+    <row r="45" spans="1:1024">
+      <c r="A45" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="19">
         <v>1</v>
       </c>
-      <c r="D45" s="20">
-        <v>11535</v>
+      <c r="D45" s="27" t="s">
+        <v>95</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G45"/>
@@ -46696,24 +46924,24 @@
       <c r="AMI45"/>
       <c r="AMJ45"/>
     </row>
-    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>62</v>
+    <row r="46" spans="1:1024">
+      <c r="A46" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="19">
         <v>1</v>
       </c>
-      <c r="D46" s="20">
-        <v>11535</v>
+      <c r="D46" s="27" t="s">
+        <v>95</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="20">
-        <v>15</v>
+      <c r="F46" s="27">
+        <v>35</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -47734,23 +47962,23 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>63</v>
+    <row r="47" spans="1:1024">
+      <c r="A47" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="19">
         <v>1</v>
       </c>
-      <c r="D47" s="20">
-        <v>11603</v>
+      <c r="D47" s="27" t="s">
+        <v>92</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>1450</v>
       </c>
       <c r="G47" s="17" t="s">
@@ -48774,23 +49002,23 @@
       <c r="AMI47"/>
       <c r="AMJ47"/>
     </row>
-    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>63</v>
+    <row r="48" spans="1:1024">
+      <c r="A48" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="19">
         <v>1</v>
       </c>
-      <c r="D48" s="20">
-        <v>11603</v>
+      <c r="D48" s="27" t="s">
+        <v>92</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G48"/>
@@ -49812,23 +50040,23 @@
       <c r="AMI48"/>
       <c r="AMJ48"/>
     </row>
-    <row r="49" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>63</v>
+    <row r="49" spans="1:1024">
+      <c r="A49" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="19">
         <v>1</v>
       </c>
-      <c r="D49" s="20">
-        <v>11603</v>
+      <c r="D49" s="27" t="s">
+        <v>92</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G49"/>
@@ -50850,24 +51078,24 @@
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>63</v>
+    <row r="50" spans="1:1024">
+      <c r="A50" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="19">
         <v>1</v>
       </c>
-      <c r="D50" s="20">
-        <v>11603</v>
+      <c r="D50" s="27" t="s">
+        <v>92</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="20">
-        <v>54</v>
+      <c r="F50" s="27">
+        <v>63</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
@@ -51888,23 +52116,23 @@
       <c r="AMI50"/>
       <c r="AMJ50"/>
     </row>
-    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>64</v>
+    <row r="51" spans="1:1024">
+      <c r="A51" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="19">
         <v>1</v>
       </c>
-      <c r="D51" s="20">
-        <v>11607</v>
+      <c r="D51" s="27" t="s">
+        <v>93</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="18">
         <v>1450</v>
       </c>
       <c r="G51" s="17" t="s">
@@ -52928,23 +53156,23 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>64</v>
+    <row r="52" spans="1:1024">
+      <c r="A52" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="19">
         <v>1</v>
       </c>
-      <c r="D52" s="20">
-        <v>11607</v>
+      <c r="D52" s="27" t="s">
+        <v>93</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G52"/>
@@ -53966,23 +54194,23 @@
       <c r="AMI52"/>
       <c r="AMJ52"/>
     </row>
-    <row r="53" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>64</v>
+    <row r="53" spans="1:1024">
+      <c r="A53" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="19">
         <v>1</v>
       </c>
-      <c r="D53" s="20">
-        <v>11607</v>
+      <c r="D53" s="27" t="s">
+        <v>93</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G53"/>
@@ -55004,24 +55232,24 @@
       <c r="AMI53"/>
       <c r="AMJ53"/>
     </row>
-    <row r="54" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>64</v>
+    <row r="54" spans="1:1024">
+      <c r="A54" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="19">
         <v>1</v>
       </c>
-      <c r="D54" s="20">
-        <v>11607</v>
+      <c r="D54" s="27" t="s">
+        <v>93</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="20">
-        <v>62</v>
+      <c r="F54" s="27">
+        <v>67</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -56042,23 +56270,23 @@
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>65</v>
+    <row r="55" spans="1:1024">
+      <c r="A55" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="19">
         <v>1</v>
       </c>
-      <c r="D55" s="20">
-        <v>12311</v>
+      <c r="D55" s="27" t="s">
+        <v>100</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <v>1450</v>
       </c>
       <c r="G55" s="17" t="s">
@@ -57082,23 +57310,23 @@
       <c r="AMI55"/>
       <c r="AMJ55"/>
     </row>
-    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>65</v>
+    <row r="56" spans="1:1024">
+      <c r="A56" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="19">
         <v>1</v>
       </c>
-      <c r="D56" s="20">
-        <v>12311</v>
+      <c r="D56" s="27" t="s">
+        <v>100</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G56"/>
@@ -58120,23 +58348,23 @@
       <c r="AMI56"/>
       <c r="AMJ56"/>
     </row>
-    <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>65</v>
+    <row r="57" spans="1:1024">
+      <c r="A57" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="19">
         <v>1</v>
       </c>
-      <c r="D57" s="20">
-        <v>12311</v>
+      <c r="D57" s="27" t="s">
+        <v>100</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G57"/>
@@ -59158,24 +59386,24 @@
       <c r="AMI57"/>
       <c r="AMJ57"/>
     </row>
-    <row r="58" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>65</v>
+    <row r="58" spans="1:1024">
+      <c r="A58" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="19">
         <v>1</v>
       </c>
-      <c r="D58" s="20">
-        <v>12311</v>
+      <c r="D58" s="27" t="s">
+        <v>100</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="20">
-        <v>52</v>
+      <c r="F58" s="27">
+        <v>51</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -60196,23 +60424,23 @@
       <c r="AMI58"/>
       <c r="AMJ58"/>
     </row>
-    <row r="59" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>66</v>
+    <row r="59" spans="1:1024">
+      <c r="A59" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="19">
         <v>1</v>
       </c>
-      <c r="D59" s="20">
-        <v>11593</v>
+      <c r="D59" s="27" t="s">
+        <v>96</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <v>1450</v>
       </c>
       <c r="G59" s="17" t="s">
@@ -61236,23 +61464,23 @@
       <c r="AMI59"/>
       <c r="AMJ59"/>
     </row>
-    <row r="60" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>66</v>
+    <row r="60" spans="1:1024">
+      <c r="A60" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="19">
         <v>1</v>
       </c>
-      <c r="D60" s="20">
-        <v>11593</v>
+      <c r="D60" s="27" t="s">
+        <v>96</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G60"/>
@@ -62274,23 +62502,23 @@
       <c r="AMI60"/>
       <c r="AMJ60"/>
     </row>
-    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>66</v>
+    <row r="61" spans="1:1024">
+      <c r="A61" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="19">
         <v>1</v>
       </c>
-      <c r="D61" s="20">
-        <v>11593</v>
+      <c r="D61" s="27" t="s">
+        <v>96</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G61"/>
@@ -63312,24 +63540,24 @@
       <c r="AMI61"/>
       <c r="AMJ61"/>
     </row>
-    <row r="62" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>66</v>
+    <row r="62" spans="1:1024">
+      <c r="A62" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="19">
         <v>1</v>
       </c>
-      <c r="D62" s="20">
-        <v>11593</v>
+      <c r="D62" s="27" t="s">
+        <v>96</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="20">
-        <v>19</v>
+      <c r="F62" s="27">
+        <v>93</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -64350,23 +64578,23 @@
       <c r="AMI62"/>
       <c r="AMJ62"/>
     </row>
-    <row r="63" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>67</v>
+    <row r="63" spans="1:1024">
+      <c r="A63" s="18" t="s">
+        <v>65</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C63" s="19">
         <v>1</v>
       </c>
-      <c r="D63" s="20">
-        <v>11594</v>
+      <c r="D63" s="27" t="s">
+        <v>97</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="18">
         <v>1450</v>
       </c>
       <c r="G63" s="17" t="s">
@@ -65390,23 +65618,23 @@
       <c r="AMI63"/>
       <c r="AMJ63"/>
     </row>
-    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>67</v>
+    <row r="64" spans="1:1024">
+      <c r="A64" s="18" t="s">
+        <v>65</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="19">
         <v>1</v>
       </c>
-      <c r="D64" s="20">
-        <v>11594</v>
+      <c r="D64" s="27" t="s">
+        <v>97</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G64"/>
@@ -66428,23 +66656,23 @@
       <c r="AMI64"/>
       <c r="AMJ64"/>
     </row>
-    <row r="65" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>67</v>
+    <row r="65" spans="1:1025">
+      <c r="A65" s="18" t="s">
+        <v>65</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="19">
         <v>1</v>
       </c>
-      <c r="D65" s="20">
-        <v>11594</v>
+      <c r="D65" s="27" t="s">
+        <v>97</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G65"/>
@@ -67466,24 +67694,24 @@
       <c r="AMI65"/>
       <c r="AMJ65"/>
     </row>
-    <row r="66" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>67</v>
+    <row r="66" spans="1:1025">
+      <c r="A66" s="18" t="s">
+        <v>65</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="19">
         <v>1</v>
       </c>
-      <c r="D66" s="20">
-        <v>11594</v>
+      <c r="D66" s="27" t="s">
+        <v>97</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F66" s="20">
-        <v>56</v>
+      <c r="F66" s="27">
+        <v>94</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -68504,46 +68732,46 @@
       <c r="AMI66"/>
       <c r="AMJ66"/>
     </row>
-    <row r="67" spans="1:1024" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>72</v>
+    <row r="67" spans="1:1025" s="21" customFormat="1">
+      <c r="A67" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="20">
         <v>1</v>
       </c>
-      <c r="D67" s="23">
-        <v>11600</v>
+      <c r="D67" s="31" t="s">
+        <v>94</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="21">
         <v>5076</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>72</v>
+    <row r="68" spans="1:1025">
+      <c r="A68" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="19">
         <v>1</v>
       </c>
-      <c r="D68" s="20">
-        <v>11600</v>
+      <c r="D68" s="27" t="s">
+        <v>94</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G68"/>
@@ -69565,23 +69793,23 @@
       <c r="AMI68"/>
       <c r="AMJ68"/>
     </row>
-    <row r="69" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>72</v>
+    <row r="69" spans="1:1025">
+      <c r="A69" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="19">
         <v>1</v>
       </c>
-      <c r="D69" s="20">
-        <v>11600</v>
+      <c r="D69" s="27" t="s">
+        <v>94</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G69"/>
@@ -70603,24 +70831,24 @@
       <c r="AMI69"/>
       <c r="AMJ69"/>
     </row>
-    <row r="70" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>72</v>
+    <row r="70" spans="1:1025">
+      <c r="A70" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="19">
         <v>1</v>
       </c>
-      <c r="D70" s="20">
-        <v>11600</v>
+      <c r="D70" s="27" t="s">
+        <v>94</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="20">
-        <v>26</v>
+      <c r="F70" s="27">
+        <v>60</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -71641,23 +71869,23 @@
       <c r="AMI70"/>
       <c r="AMJ70"/>
     </row>
-    <row r="71" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>73</v>
+    <row r="71" spans="1:1025">
+      <c r="A71" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="19">
         <v>1</v>
       </c>
-      <c r="D71" s="20">
-        <v>11598</v>
+      <c r="D71" s="27" t="s">
+        <v>98</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="21">
         <v>5076</v>
       </c>
       <c r="G71" s="17" t="s">
@@ -72681,23 +72909,23 @@
       <c r="AMI71"/>
       <c r="AMJ71"/>
     </row>
-    <row r="72" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>73</v>
+    <row r="72" spans="1:1025">
+      <c r="A72" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="21">
+      <c r="C72" s="19">
         <v>1</v>
       </c>
-      <c r="D72" s="20">
-        <v>11598</v>
+      <c r="D72" s="27" t="s">
+        <v>98</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G72"/>
@@ -73719,23 +73947,23 @@
       <c r="AMI72"/>
       <c r="AMJ72"/>
     </row>
-    <row r="73" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>73</v>
+    <row r="73" spans="1:1025">
+      <c r="A73" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="21">
+      <c r="C73" s="19">
         <v>1</v>
       </c>
-      <c r="D73" s="20">
-        <v>11598</v>
+      <c r="D73" s="27" t="s">
+        <v>98</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G73"/>
@@ -74757,24 +74985,24 @@
       <c r="AMI73"/>
       <c r="AMJ73"/>
     </row>
-    <row r="74" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>73</v>
+    <row r="74" spans="1:1025">
+      <c r="A74" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="19">
         <v>1</v>
       </c>
-      <c r="D74" s="20">
-        <v>11598</v>
+      <c r="D74" s="27" t="s">
+        <v>98</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="20">
-        <v>29</v>
+      <c r="F74" s="27">
+        <v>98</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -75795,23 +76023,23 @@
       <c r="AMI74"/>
       <c r="AMJ74"/>
     </row>
-    <row r="75" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>74</v>
+    <row r="75" spans="1:1025">
+      <c r="A75" s="18" t="s">
+        <v>72</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="19">
         <v>1</v>
       </c>
-      <c r="D75" s="20">
-        <v>12223</v>
+      <c r="D75" s="27" t="s">
+        <v>101</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F75" s="23">
+      <c r="F75" s="21">
         <v>5076</v>
       </c>
       <c r="G75" s="17" t="s">
@@ -76835,23 +77063,23 @@
       <c r="AMI75"/>
       <c r="AMJ75"/>
     </row>
-    <row r="76" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>74</v>
+    <row r="76" spans="1:1025">
+      <c r="A76" s="18" t="s">
+        <v>72</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="21">
+      <c r="C76" s="19">
         <v>1</v>
       </c>
-      <c r="D76" s="20">
-        <v>12223</v>
+      <c r="D76" s="27" t="s">
+        <v>101</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="18">
         <v>59.7128333333333</v>
       </c>
       <c r="G76"/>
@@ -77873,23 +78101,23 @@
       <c r="AMI76"/>
       <c r="AMJ76"/>
     </row>
-    <row r="77" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>74</v>
+    <row r="77" spans="1:1025">
+      <c r="A77" s="18" t="s">
+        <v>72</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="19">
         <v>1</v>
       </c>
-      <c r="D77" s="20">
-        <v>12223</v>
+      <c r="D77" s="27" t="s">
+        <v>101</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="18">
         <v>-39.320333333333302</v>
       </c>
       <c r="G77"/>
@@ -78911,24 +79139,24 @@
       <c r="AMI77"/>
       <c r="AMJ77"/>
     </row>
-    <row r="78" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>74</v>
+    <row r="78" spans="1:1025">
+      <c r="A78" s="18" t="s">
+        <v>72</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="21">
+      <c r="C78" s="19">
         <v>1</v>
       </c>
-      <c r="D78" s="20">
-        <v>12223</v>
+      <c r="D78" s="27" t="s">
+        <v>101</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F78" s="20">
-        <v>67</v>
+      <c r="F78" s="27">
+        <v>23</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
@@ -79949,203 +80177,1495 @@
       <c r="AMI78"/>
       <c r="AMJ78"/>
     </row>
-    <row r="79" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>68</v>
+    <row r="79" spans="1:1025" s="30" customFormat="1">
+      <c r="A79" s="27" t="s">
+        <v>82</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="29">
         <v>1</v>
       </c>
-      <c r="D79" s="17">
-        <v>11973</v>
+      <c r="D79" s="27" t="s">
+        <v>89</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="27">
+        <v>5076</v>
+      </c>
+      <c r="AMK79" s="28"/>
+    </row>
+    <row r="80" spans="1:1025" s="30" customFormat="1">
+      <c r="A80" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="29">
+        <v>1</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="27">
         <v>59.7128333333333</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="AMK80" s="28"/>
+    </row>
+    <row r="81" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A81" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="29">
+        <v>1</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="27">
+        <v>-39.320333333333302</v>
+      </c>
+      <c r="AMK81" s="28"/>
+    </row>
+    <row r="82" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A82" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="29">
+        <v>1</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="27">
+        <v>5076</v>
+      </c>
+      <c r="AMK82" s="28"/>
+    </row>
+    <row r="83" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A83" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="29">
+        <v>1</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="27">
+        <v>59.7128333333333</v>
+      </c>
+      <c r="AMK83" s="28"/>
+    </row>
+    <row r="84" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A84" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="29">
+        <v>1</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="27">
+        <v>-39.320333333333302</v>
+      </c>
+      <c r="AMK84" s="28"/>
+    </row>
+    <row r="85" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A85" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="29">
+        <v>1</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="27">
+        <v>5076</v>
+      </c>
+      <c r="AMK85" s="28"/>
+    </row>
+    <row r="86" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A86" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="29">
+        <v>1</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="27">
+        <v>59.7128333333333</v>
+      </c>
+      <c r="AMK86" s="28"/>
+    </row>
+    <row r="87" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A87" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="29">
+        <v>1</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="27">
+        <v>-39.320333333333302</v>
+      </c>
+      <c r="AMK87" s="28"/>
+    </row>
+    <row r="88" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A88" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="29">
+        <v>1</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="27">
+        <v>5076</v>
+      </c>
+      <c r="AMK88" s="28"/>
+    </row>
+    <row r="89" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A89" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="29">
+        <v>1</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="27">
+        <v>59.7128333333333</v>
+      </c>
+      <c r="AMK89" s="28"/>
+    </row>
+    <row r="90" spans="1:7 1025:1025" s="30" customFormat="1">
+      <c r="A90" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="29">
+        <v>1</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="27">
+        <v>-39.320333333333302</v>
+      </c>
+      <c r="AMK90" s="28"/>
+    </row>
+    <row r="91" spans="1:7 1025:1025">
+      <c r="A91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="17">
+        <v>1</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="17">
+        <v>59.7128333333333</v>
+      </c>
+      <c r="G91" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>68</v>
+    <row r="92" spans="1:7 1025:1025">
+      <c r="A92" s="17" t="s">
+        <v>66</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B92" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C92" s="17">
         <v>1</v>
       </c>
-      <c r="D80" s="17">
-        <v>11973</v>
+      <c r="D92" s="28" t="s">
+        <v>78</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E92" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F92" s="17">
         <v>-39.320333333333302</v>
       </c>
-      <c r="G80"/>
+      <c r="G92"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>69</v>
+    <row r="93" spans="1:7 1025:1025">
+      <c r="A93" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B93" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C93" s="17">
         <v>1</v>
       </c>
-      <c r="D81" s="17">
-        <v>11974</v>
+      <c r="D93" s="28" t="s">
+        <v>79</v>
       </c>
-      <c r="E81" s="17" t="s">
+      <c r="E93" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F93" s="17">
         <v>59.7128333333333</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G93" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>69</v>
+    <row r="94" spans="1:7 1025:1025">
+      <c r="A94" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B94" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C94" s="17">
         <v>1</v>
       </c>
-      <c r="D82" s="17">
-        <v>11974</v>
+      <c r="D94" s="28" t="s">
+        <v>79</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E94" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F94" s="17">
         <v>-39.320333333333302</v>
       </c>
-      <c r="G82"/>
+      <c r="G94"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>70</v>
+    <row r="95" spans="1:7 1025:1025">
+      <c r="A95" s="17" t="s">
+        <v>68</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B95" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C95" s="17">
         <v>1</v>
       </c>
-      <c r="D83" s="17">
-        <v>11976</v>
+      <c r="D95" s="28" t="s">
+        <v>80</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E95" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F95" s="17">
         <v>59.7128333333333</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G95" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>70</v>
+    <row r="96" spans="1:7 1025:1025">
+      <c r="A96" s="17" t="s">
+        <v>68</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B96" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C96" s="17">
         <v>1</v>
       </c>
-      <c r="D84" s="17">
-        <v>11976</v>
+      <c r="D96" s="28" t="s">
+        <v>80</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E96" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F96" s="17">
         <v>-39.320333333333302</v>
       </c>
-      <c r="G84"/>
+      <c r="G96"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>71</v>
+    <row r="97" spans="1:1025">
+      <c r="A97" s="17" t="s">
+        <v>69</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B97" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C97" s="17">
         <v>1</v>
       </c>
-      <c r="D85" s="17">
-        <v>11981</v>
+      <c r="D97" s="28" t="s">
+        <v>81</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E97" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F97" s="17">
         <v>59.7128333333333</v>
       </c>
-      <c r="G85" s="17" t="s">
+      <c r="G97" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>71</v>
+    <row r="98" spans="1:1025">
+      <c r="A98" s="17" t="s">
+        <v>69</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B98" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C98" s="17">
         <v>1</v>
       </c>
-      <c r="D86" s="17">
-        <v>11981</v>
+      <c r="D98" s="28" t="s">
+        <v>81</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E98" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F98" s="17">
         <v>-39.320333333333302</v>
       </c>
-      <c r="G86"/>
+      <c r="G98"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+    <row r="99" spans="1:1025">
+      <c r="A99" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="19">
+        <v>1</v>
+      </c>
+      <c r="D99" s="27">
+        <v>13285</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="20" t="s">
+    </row>
+    <row r="100" spans="1:1025" s="30" customFormat="1">
+      <c r="A100" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C100" s="29">
         <v>1</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>55</v>
+      <c r="D100" s="28">
+        <v>12369</v>
       </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="25" t="s">
-        <v>56</v>
-      </c>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+      <c r="T100" s="28"/>
+      <c r="U100" s="28"/>
+      <c r="V100" s="28"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="28"/>
+      <c r="AE100" s="28"/>
+      <c r="AF100" s="28"/>
+      <c r="AG100" s="28"/>
+      <c r="AH100" s="28"/>
+      <c r="AI100" s="28"/>
+      <c r="AJ100" s="28"/>
+      <c r="AK100" s="28"/>
+      <c r="AL100" s="28"/>
+      <c r="AM100" s="28"/>
+      <c r="AN100" s="28"/>
+      <c r="AO100" s="28"/>
+      <c r="AP100" s="28"/>
+      <c r="AQ100" s="28"/>
+      <c r="AR100" s="28"/>
+      <c r="AS100" s="28"/>
+      <c r="AT100" s="28"/>
+      <c r="AU100" s="28"/>
+      <c r="AV100" s="28"/>
+      <c r="AW100" s="28"/>
+      <c r="AX100" s="28"/>
+      <c r="AY100" s="28"/>
+      <c r="AZ100" s="28"/>
+      <c r="BA100" s="28"/>
+      <c r="BB100" s="28"/>
+      <c r="BC100" s="28"/>
+      <c r="BD100" s="28"/>
+      <c r="BE100" s="28"/>
+      <c r="BF100" s="28"/>
+      <c r="BG100" s="28"/>
+      <c r="BH100" s="28"/>
+      <c r="BI100" s="28"/>
+      <c r="BJ100" s="28"/>
+      <c r="BK100" s="28"/>
+      <c r="BL100" s="28"/>
+      <c r="BM100" s="28"/>
+      <c r="BN100" s="28"/>
+      <c r="BO100" s="28"/>
+      <c r="BP100" s="28"/>
+      <c r="BQ100" s="28"/>
+      <c r="BR100" s="28"/>
+      <c r="BS100" s="28"/>
+      <c r="BT100" s="28"/>
+      <c r="BU100" s="28"/>
+      <c r="BV100" s="28"/>
+      <c r="BW100" s="28"/>
+      <c r="BX100" s="28"/>
+      <c r="BY100" s="28"/>
+      <c r="BZ100" s="28"/>
+      <c r="CA100" s="28"/>
+      <c r="CB100" s="28"/>
+      <c r="CC100" s="28"/>
+      <c r="CD100" s="28"/>
+      <c r="CE100" s="28"/>
+      <c r="CF100" s="28"/>
+      <c r="CG100" s="28"/>
+      <c r="CH100" s="28"/>
+      <c r="CI100" s="28"/>
+      <c r="CJ100" s="28"/>
+      <c r="CK100" s="28"/>
+      <c r="CL100" s="28"/>
+      <c r="CM100" s="28"/>
+      <c r="CN100" s="28"/>
+      <c r="CO100" s="28"/>
+      <c r="CP100" s="28"/>
+      <c r="CQ100" s="28"/>
+      <c r="CR100" s="28"/>
+      <c r="CS100" s="28"/>
+      <c r="CT100" s="28"/>
+      <c r="CU100" s="28"/>
+      <c r="CV100" s="28"/>
+      <c r="CW100" s="28"/>
+      <c r="CX100" s="28"/>
+      <c r="CY100" s="28"/>
+      <c r="CZ100" s="28"/>
+      <c r="DA100" s="28"/>
+      <c r="DB100" s="28"/>
+      <c r="DC100" s="28"/>
+      <c r="DD100" s="28"/>
+      <c r="DE100" s="28"/>
+      <c r="DF100" s="28"/>
+      <c r="DG100" s="28"/>
+      <c r="DH100" s="28"/>
+      <c r="DI100" s="28"/>
+      <c r="DJ100" s="28"/>
+      <c r="DK100" s="28"/>
+      <c r="DL100" s="28"/>
+      <c r="DM100" s="28"/>
+      <c r="DN100" s="28"/>
+      <c r="DO100" s="28"/>
+      <c r="DP100" s="28"/>
+      <c r="DQ100" s="28"/>
+      <c r="DR100" s="28"/>
+      <c r="DS100" s="28"/>
+      <c r="DT100" s="28"/>
+      <c r="DU100" s="28"/>
+      <c r="DV100" s="28"/>
+      <c r="DW100" s="28"/>
+      <c r="DX100" s="28"/>
+      <c r="DY100" s="28"/>
+      <c r="DZ100" s="28"/>
+      <c r="EA100" s="28"/>
+      <c r="EB100" s="28"/>
+      <c r="EC100" s="28"/>
+      <c r="ED100" s="28"/>
+      <c r="EE100" s="28"/>
+      <c r="EF100" s="28"/>
+      <c r="EG100" s="28"/>
+      <c r="EH100" s="28"/>
+      <c r="EI100" s="28"/>
+      <c r="EJ100" s="28"/>
+      <c r="EK100" s="28"/>
+      <c r="EL100" s="28"/>
+      <c r="EM100" s="28"/>
+      <c r="EN100" s="28"/>
+      <c r="EO100" s="28"/>
+      <c r="EP100" s="28"/>
+      <c r="EQ100" s="28"/>
+      <c r="ER100" s="28"/>
+      <c r="ES100" s="28"/>
+      <c r="ET100" s="28"/>
+      <c r="EU100" s="28"/>
+      <c r="EV100" s="28"/>
+      <c r="EW100" s="28"/>
+      <c r="EX100" s="28"/>
+      <c r="EY100" s="28"/>
+      <c r="EZ100" s="28"/>
+      <c r="FA100" s="28"/>
+      <c r="FB100" s="28"/>
+      <c r="FC100" s="28"/>
+      <c r="FD100" s="28"/>
+      <c r="FE100" s="28"/>
+      <c r="FF100" s="28"/>
+      <c r="FG100" s="28"/>
+      <c r="FH100" s="28"/>
+      <c r="FI100" s="28"/>
+      <c r="FJ100" s="28"/>
+      <c r="FK100" s="28"/>
+      <c r="FL100" s="28"/>
+      <c r="FM100" s="28"/>
+      <c r="FN100" s="28"/>
+      <c r="FO100" s="28"/>
+      <c r="FP100" s="28"/>
+      <c r="FQ100" s="28"/>
+      <c r="FR100" s="28"/>
+      <c r="FS100" s="28"/>
+      <c r="FT100" s="28"/>
+      <c r="FU100" s="28"/>
+      <c r="FV100" s="28"/>
+      <c r="FW100" s="28"/>
+      <c r="FX100" s="28"/>
+      <c r="FY100" s="28"/>
+      <c r="FZ100" s="28"/>
+      <c r="GA100" s="28"/>
+      <c r="GB100" s="28"/>
+      <c r="GC100" s="28"/>
+      <c r="GD100" s="28"/>
+      <c r="GE100" s="28"/>
+      <c r="GF100" s="28"/>
+      <c r="GG100" s="28"/>
+      <c r="GH100" s="28"/>
+      <c r="GI100" s="28"/>
+      <c r="GJ100" s="28"/>
+      <c r="GK100" s="28"/>
+      <c r="GL100" s="28"/>
+      <c r="GM100" s="28"/>
+      <c r="GN100" s="28"/>
+      <c r="GO100" s="28"/>
+      <c r="GP100" s="28"/>
+      <c r="GQ100" s="28"/>
+      <c r="GR100" s="28"/>
+      <c r="GS100" s="28"/>
+      <c r="GT100" s="28"/>
+      <c r="GU100" s="28"/>
+      <c r="GV100" s="28"/>
+      <c r="GW100" s="28"/>
+      <c r="GX100" s="28"/>
+      <c r="GY100" s="28"/>
+      <c r="GZ100" s="28"/>
+      <c r="HA100" s="28"/>
+      <c r="HB100" s="28"/>
+      <c r="HC100" s="28"/>
+      <c r="HD100" s="28"/>
+      <c r="HE100" s="28"/>
+      <c r="HF100" s="28"/>
+      <c r="HG100" s="28"/>
+      <c r="HH100" s="28"/>
+      <c r="HI100" s="28"/>
+      <c r="HJ100" s="28"/>
+      <c r="HK100" s="28"/>
+      <c r="HL100" s="28"/>
+      <c r="HM100" s="28"/>
+      <c r="HN100" s="28"/>
+      <c r="HO100" s="28"/>
+      <c r="HP100" s="28"/>
+      <c r="HQ100" s="28"/>
+      <c r="HR100" s="28"/>
+      <c r="HS100" s="28"/>
+      <c r="HT100" s="28"/>
+      <c r="HU100" s="28"/>
+      <c r="HV100" s="28"/>
+      <c r="HW100" s="28"/>
+      <c r="HX100" s="28"/>
+      <c r="HY100" s="28"/>
+      <c r="HZ100" s="28"/>
+      <c r="IA100" s="28"/>
+      <c r="IB100" s="28"/>
+      <c r="IC100" s="28"/>
+      <c r="ID100" s="28"/>
+      <c r="IE100" s="28"/>
+      <c r="IF100" s="28"/>
+      <c r="IG100" s="28"/>
+      <c r="IH100" s="28"/>
+      <c r="II100" s="28"/>
+      <c r="IJ100" s="28"/>
+      <c r="IK100" s="28"/>
+      <c r="IL100" s="28"/>
+      <c r="IM100" s="28"/>
+      <c r="IN100" s="28"/>
+      <c r="IO100" s="28"/>
+      <c r="IP100" s="28"/>
+      <c r="IQ100" s="28"/>
+      <c r="IR100" s="28"/>
+      <c r="IS100" s="28"/>
+      <c r="IT100" s="28"/>
+      <c r="IU100" s="28"/>
+      <c r="IV100" s="28"/>
+      <c r="IW100" s="28"/>
+      <c r="IX100" s="28"/>
+      <c r="IY100" s="28"/>
+      <c r="IZ100" s="28"/>
+      <c r="JA100" s="28"/>
+      <c r="JB100" s="28"/>
+      <c r="JC100" s="28"/>
+      <c r="JD100" s="28"/>
+      <c r="JE100" s="28"/>
+      <c r="JF100" s="28"/>
+      <c r="JG100" s="28"/>
+      <c r="JH100" s="28"/>
+      <c r="JI100" s="28"/>
+      <c r="JJ100" s="28"/>
+      <c r="JK100" s="28"/>
+      <c r="JL100" s="28"/>
+      <c r="JM100" s="28"/>
+      <c r="JN100" s="28"/>
+      <c r="JO100" s="28"/>
+      <c r="JP100" s="28"/>
+      <c r="JQ100" s="28"/>
+      <c r="JR100" s="28"/>
+      <c r="JS100" s="28"/>
+      <c r="JT100" s="28"/>
+      <c r="JU100" s="28"/>
+      <c r="JV100" s="28"/>
+      <c r="JW100" s="28"/>
+      <c r="JX100" s="28"/>
+      <c r="JY100" s="28"/>
+      <c r="JZ100" s="28"/>
+      <c r="KA100" s="28"/>
+      <c r="KB100" s="28"/>
+      <c r="KC100" s="28"/>
+      <c r="KD100" s="28"/>
+      <c r="KE100" s="28"/>
+      <c r="KF100" s="28"/>
+      <c r="KG100" s="28"/>
+      <c r="KH100" s="28"/>
+      <c r="KI100" s="28"/>
+      <c r="KJ100" s="28"/>
+      <c r="KK100" s="28"/>
+      <c r="KL100" s="28"/>
+      <c r="KM100" s="28"/>
+      <c r="KN100" s="28"/>
+      <c r="KO100" s="28"/>
+      <c r="KP100" s="28"/>
+      <c r="KQ100" s="28"/>
+      <c r="KR100" s="28"/>
+      <c r="KS100" s="28"/>
+      <c r="KT100" s="28"/>
+      <c r="KU100" s="28"/>
+      <c r="KV100" s="28"/>
+      <c r="KW100" s="28"/>
+      <c r="KX100" s="28"/>
+      <c r="KY100" s="28"/>
+      <c r="KZ100" s="28"/>
+      <c r="LA100" s="28"/>
+      <c r="LB100" s="28"/>
+      <c r="LC100" s="28"/>
+      <c r="LD100" s="28"/>
+      <c r="LE100" s="28"/>
+      <c r="LF100" s="28"/>
+      <c r="LG100" s="28"/>
+      <c r="LH100" s="28"/>
+      <c r="LI100" s="28"/>
+      <c r="LJ100" s="28"/>
+      <c r="LK100" s="28"/>
+      <c r="LL100" s="28"/>
+      <c r="LM100" s="28"/>
+      <c r="LN100" s="28"/>
+      <c r="LO100" s="28"/>
+      <c r="LP100" s="28"/>
+      <c r="LQ100" s="28"/>
+      <c r="LR100" s="28"/>
+      <c r="LS100" s="28"/>
+      <c r="LT100" s="28"/>
+      <c r="LU100" s="28"/>
+      <c r="LV100" s="28"/>
+      <c r="LW100" s="28"/>
+      <c r="LX100" s="28"/>
+      <c r="LY100" s="28"/>
+      <c r="LZ100" s="28"/>
+      <c r="MA100" s="28"/>
+      <c r="MB100" s="28"/>
+      <c r="MC100" s="28"/>
+      <c r="MD100" s="28"/>
+      <c r="ME100" s="28"/>
+      <c r="MF100" s="28"/>
+      <c r="MG100" s="28"/>
+      <c r="MH100" s="28"/>
+      <c r="MI100" s="28"/>
+      <c r="MJ100" s="28"/>
+      <c r="MK100" s="28"/>
+      <c r="ML100" s="28"/>
+      <c r="MM100" s="28"/>
+      <c r="MN100" s="28"/>
+      <c r="MO100" s="28"/>
+      <c r="MP100" s="28"/>
+      <c r="MQ100" s="28"/>
+      <c r="MR100" s="28"/>
+      <c r="MS100" s="28"/>
+      <c r="MT100" s="28"/>
+      <c r="MU100" s="28"/>
+      <c r="MV100" s="28"/>
+      <c r="MW100" s="28"/>
+      <c r="MX100" s="28"/>
+      <c r="MY100" s="28"/>
+      <c r="MZ100" s="28"/>
+      <c r="NA100" s="28"/>
+      <c r="NB100" s="28"/>
+      <c r="NC100" s="28"/>
+      <c r="ND100" s="28"/>
+      <c r="NE100" s="28"/>
+      <c r="NF100" s="28"/>
+      <c r="NG100" s="28"/>
+      <c r="NH100" s="28"/>
+      <c r="NI100" s="28"/>
+      <c r="NJ100" s="28"/>
+      <c r="NK100" s="28"/>
+      <c r="NL100" s="28"/>
+      <c r="NM100" s="28"/>
+      <c r="NN100" s="28"/>
+      <c r="NO100" s="28"/>
+      <c r="NP100" s="28"/>
+      <c r="NQ100" s="28"/>
+      <c r="NR100" s="28"/>
+      <c r="NS100" s="28"/>
+      <c r="NT100" s="28"/>
+      <c r="NU100" s="28"/>
+      <c r="NV100" s="28"/>
+      <c r="NW100" s="28"/>
+      <c r="NX100" s="28"/>
+      <c r="NY100" s="28"/>
+      <c r="NZ100" s="28"/>
+      <c r="OA100" s="28"/>
+      <c r="OB100" s="28"/>
+      <c r="OC100" s="28"/>
+      <c r="OD100" s="28"/>
+      <c r="OE100" s="28"/>
+      <c r="OF100" s="28"/>
+      <c r="OG100" s="28"/>
+      <c r="OH100" s="28"/>
+      <c r="OI100" s="28"/>
+      <c r="OJ100" s="28"/>
+      <c r="OK100" s="28"/>
+      <c r="OL100" s="28"/>
+      <c r="OM100" s="28"/>
+      <c r="ON100" s="28"/>
+      <c r="OO100" s="28"/>
+      <c r="OP100" s="28"/>
+      <c r="OQ100" s="28"/>
+      <c r="OR100" s="28"/>
+      <c r="OS100" s="28"/>
+      <c r="OT100" s="28"/>
+      <c r="OU100" s="28"/>
+      <c r="OV100" s="28"/>
+      <c r="OW100" s="28"/>
+      <c r="OX100" s="28"/>
+      <c r="OY100" s="28"/>
+      <c r="OZ100" s="28"/>
+      <c r="PA100" s="28"/>
+      <c r="PB100" s="28"/>
+      <c r="PC100" s="28"/>
+      <c r="PD100" s="28"/>
+      <c r="PE100" s="28"/>
+      <c r="PF100" s="28"/>
+      <c r="PG100" s="28"/>
+      <c r="PH100" s="28"/>
+      <c r="PI100" s="28"/>
+      <c r="PJ100" s="28"/>
+      <c r="PK100" s="28"/>
+      <c r="PL100" s="28"/>
+      <c r="PM100" s="28"/>
+      <c r="PN100" s="28"/>
+      <c r="PO100" s="28"/>
+      <c r="PP100" s="28"/>
+      <c r="PQ100" s="28"/>
+      <c r="PR100" s="28"/>
+      <c r="PS100" s="28"/>
+      <c r="PT100" s="28"/>
+      <c r="PU100" s="28"/>
+      <c r="PV100" s="28"/>
+      <c r="PW100" s="28"/>
+      <c r="PX100" s="28"/>
+      <c r="PY100" s="28"/>
+      <c r="PZ100" s="28"/>
+      <c r="QA100" s="28"/>
+      <c r="QB100" s="28"/>
+      <c r="QC100" s="28"/>
+      <c r="QD100" s="28"/>
+      <c r="QE100" s="28"/>
+      <c r="QF100" s="28"/>
+      <c r="QG100" s="28"/>
+      <c r="QH100" s="28"/>
+      <c r="QI100" s="28"/>
+      <c r="QJ100" s="28"/>
+      <c r="QK100" s="28"/>
+      <c r="QL100" s="28"/>
+      <c r="QM100" s="28"/>
+      <c r="QN100" s="28"/>
+      <c r="QO100" s="28"/>
+      <c r="QP100" s="28"/>
+      <c r="QQ100" s="28"/>
+      <c r="QR100" s="28"/>
+      <c r="QS100" s="28"/>
+      <c r="QT100" s="28"/>
+      <c r="QU100" s="28"/>
+      <c r="QV100" s="28"/>
+      <c r="QW100" s="28"/>
+      <c r="QX100" s="28"/>
+      <c r="QY100" s="28"/>
+      <c r="QZ100" s="28"/>
+      <c r="RA100" s="28"/>
+      <c r="RB100" s="28"/>
+      <c r="RC100" s="28"/>
+      <c r="RD100" s="28"/>
+      <c r="RE100" s="28"/>
+      <c r="RF100" s="28"/>
+      <c r="RG100" s="28"/>
+      <c r="RH100" s="28"/>
+      <c r="RI100" s="28"/>
+      <c r="RJ100" s="28"/>
+      <c r="RK100" s="28"/>
+      <c r="RL100" s="28"/>
+      <c r="RM100" s="28"/>
+      <c r="RN100" s="28"/>
+      <c r="RO100" s="28"/>
+      <c r="RP100" s="28"/>
+      <c r="RQ100" s="28"/>
+      <c r="RR100" s="28"/>
+      <c r="RS100" s="28"/>
+      <c r="RT100" s="28"/>
+      <c r="RU100" s="28"/>
+      <c r="RV100" s="28"/>
+      <c r="RW100" s="28"/>
+      <c r="RX100" s="28"/>
+      <c r="RY100" s="28"/>
+      <c r="RZ100" s="28"/>
+      <c r="SA100" s="28"/>
+      <c r="SB100" s="28"/>
+      <c r="SC100" s="28"/>
+      <c r="SD100" s="28"/>
+      <c r="SE100" s="28"/>
+      <c r="SF100" s="28"/>
+      <c r="SG100" s="28"/>
+      <c r="SH100" s="28"/>
+      <c r="SI100" s="28"/>
+      <c r="SJ100" s="28"/>
+      <c r="SK100" s="28"/>
+      <c r="SL100" s="28"/>
+      <c r="SM100" s="28"/>
+      <c r="SN100" s="28"/>
+      <c r="SO100" s="28"/>
+      <c r="SP100" s="28"/>
+      <c r="SQ100" s="28"/>
+      <c r="SR100" s="28"/>
+      <c r="SS100" s="28"/>
+      <c r="ST100" s="28"/>
+      <c r="SU100" s="28"/>
+      <c r="SV100" s="28"/>
+      <c r="SW100" s="28"/>
+      <c r="SX100" s="28"/>
+      <c r="SY100" s="28"/>
+      <c r="SZ100" s="28"/>
+      <c r="TA100" s="28"/>
+      <c r="TB100" s="28"/>
+      <c r="TC100" s="28"/>
+      <c r="TD100" s="28"/>
+      <c r="TE100" s="28"/>
+      <c r="TF100" s="28"/>
+      <c r="TG100" s="28"/>
+      <c r="TH100" s="28"/>
+      <c r="TI100" s="28"/>
+      <c r="TJ100" s="28"/>
+      <c r="TK100" s="28"/>
+      <c r="TL100" s="28"/>
+      <c r="TM100" s="28"/>
+      <c r="TN100" s="28"/>
+      <c r="TO100" s="28"/>
+      <c r="TP100" s="28"/>
+      <c r="TQ100" s="28"/>
+      <c r="TR100" s="28"/>
+      <c r="TS100" s="28"/>
+      <c r="TT100" s="28"/>
+      <c r="TU100" s="28"/>
+      <c r="TV100" s="28"/>
+      <c r="TW100" s="28"/>
+      <c r="TX100" s="28"/>
+      <c r="TY100" s="28"/>
+      <c r="TZ100" s="28"/>
+      <c r="UA100" s="28"/>
+      <c r="UB100" s="28"/>
+      <c r="UC100" s="28"/>
+      <c r="UD100" s="28"/>
+      <c r="UE100" s="28"/>
+      <c r="UF100" s="28"/>
+      <c r="UG100" s="28"/>
+      <c r="UH100" s="28"/>
+      <c r="UI100" s="28"/>
+      <c r="UJ100" s="28"/>
+      <c r="UK100" s="28"/>
+      <c r="UL100" s="28"/>
+      <c r="UM100" s="28"/>
+      <c r="UN100" s="28"/>
+      <c r="UO100" s="28"/>
+      <c r="UP100" s="28"/>
+      <c r="UQ100" s="28"/>
+      <c r="UR100" s="28"/>
+      <c r="US100" s="28"/>
+      <c r="UT100" s="28"/>
+      <c r="UU100" s="28"/>
+      <c r="UV100" s="28"/>
+      <c r="UW100" s="28"/>
+      <c r="UX100" s="28"/>
+      <c r="UY100" s="28"/>
+      <c r="UZ100" s="28"/>
+      <c r="VA100" s="28"/>
+      <c r="VB100" s="28"/>
+      <c r="VC100" s="28"/>
+      <c r="VD100" s="28"/>
+      <c r="VE100" s="28"/>
+      <c r="VF100" s="28"/>
+      <c r="VG100" s="28"/>
+      <c r="VH100" s="28"/>
+      <c r="VI100" s="28"/>
+      <c r="VJ100" s="28"/>
+      <c r="VK100" s="28"/>
+      <c r="VL100" s="28"/>
+      <c r="VM100" s="28"/>
+      <c r="VN100" s="28"/>
+      <c r="VO100" s="28"/>
+      <c r="VP100" s="28"/>
+      <c r="VQ100" s="28"/>
+      <c r="VR100" s="28"/>
+      <c r="VS100" s="28"/>
+      <c r="VT100" s="28"/>
+      <c r="VU100" s="28"/>
+      <c r="VV100" s="28"/>
+      <c r="VW100" s="28"/>
+      <c r="VX100" s="28"/>
+      <c r="VY100" s="28"/>
+      <c r="VZ100" s="28"/>
+      <c r="WA100" s="28"/>
+      <c r="WB100" s="28"/>
+      <c r="WC100" s="28"/>
+      <c r="WD100" s="28"/>
+      <c r="WE100" s="28"/>
+      <c r="WF100" s="28"/>
+      <c r="WG100" s="28"/>
+      <c r="WH100" s="28"/>
+      <c r="WI100" s="28"/>
+      <c r="WJ100" s="28"/>
+      <c r="WK100" s="28"/>
+      <c r="WL100" s="28"/>
+      <c r="WM100" s="28"/>
+      <c r="WN100" s="28"/>
+      <c r="WO100" s="28"/>
+      <c r="WP100" s="28"/>
+      <c r="WQ100" s="28"/>
+      <c r="WR100" s="28"/>
+      <c r="WS100" s="28"/>
+      <c r="WT100" s="28"/>
+      <c r="WU100" s="28"/>
+      <c r="WV100" s="28"/>
+      <c r="WW100" s="28"/>
+      <c r="WX100" s="28"/>
+      <c r="WY100" s="28"/>
+      <c r="WZ100" s="28"/>
+      <c r="XA100" s="28"/>
+      <c r="XB100" s="28"/>
+      <c r="XC100" s="28"/>
+      <c r="XD100" s="28"/>
+      <c r="XE100" s="28"/>
+      <c r="XF100" s="28"/>
+      <c r="XG100" s="28"/>
+      <c r="XH100" s="28"/>
+      <c r="XI100" s="28"/>
+      <c r="XJ100" s="28"/>
+      <c r="XK100" s="28"/>
+      <c r="XL100" s="28"/>
+      <c r="XM100" s="28"/>
+      <c r="XN100" s="28"/>
+      <c r="XO100" s="28"/>
+      <c r="XP100" s="28"/>
+      <c r="XQ100" s="28"/>
+      <c r="XR100" s="28"/>
+      <c r="XS100" s="28"/>
+      <c r="XT100" s="28"/>
+      <c r="XU100" s="28"/>
+      <c r="XV100" s="28"/>
+      <c r="XW100" s="28"/>
+      <c r="XX100" s="28"/>
+      <c r="XY100" s="28"/>
+      <c r="XZ100" s="28"/>
+      <c r="YA100" s="28"/>
+      <c r="YB100" s="28"/>
+      <c r="YC100" s="28"/>
+      <c r="YD100" s="28"/>
+      <c r="YE100" s="28"/>
+      <c r="YF100" s="28"/>
+      <c r="YG100" s="28"/>
+      <c r="YH100" s="28"/>
+      <c r="YI100" s="28"/>
+      <c r="YJ100" s="28"/>
+      <c r="YK100" s="28"/>
+      <c r="YL100" s="28"/>
+      <c r="YM100" s="28"/>
+      <c r="YN100" s="28"/>
+      <c r="YO100" s="28"/>
+      <c r="YP100" s="28"/>
+      <c r="YQ100" s="28"/>
+      <c r="YR100" s="28"/>
+      <c r="YS100" s="28"/>
+      <c r="YT100" s="28"/>
+      <c r="YU100" s="28"/>
+      <c r="YV100" s="28"/>
+      <c r="YW100" s="28"/>
+      <c r="YX100" s="28"/>
+      <c r="YY100" s="28"/>
+      <c r="YZ100" s="28"/>
+      <c r="ZA100" s="28"/>
+      <c r="ZB100" s="28"/>
+      <c r="ZC100" s="28"/>
+      <c r="ZD100" s="28"/>
+      <c r="ZE100" s="28"/>
+      <c r="ZF100" s="28"/>
+      <c r="ZG100" s="28"/>
+      <c r="ZH100" s="28"/>
+      <c r="ZI100" s="28"/>
+      <c r="ZJ100" s="28"/>
+      <c r="ZK100" s="28"/>
+      <c r="ZL100" s="28"/>
+      <c r="ZM100" s="28"/>
+      <c r="ZN100" s="28"/>
+      <c r="ZO100" s="28"/>
+      <c r="ZP100" s="28"/>
+      <c r="ZQ100" s="28"/>
+      <c r="ZR100" s="28"/>
+      <c r="ZS100" s="28"/>
+      <c r="ZT100" s="28"/>
+      <c r="ZU100" s="28"/>
+      <c r="ZV100" s="28"/>
+      <c r="ZW100" s="28"/>
+      <c r="ZX100" s="28"/>
+      <c r="ZY100" s="28"/>
+      <c r="ZZ100" s="28"/>
+      <c r="AAA100" s="28"/>
+      <c r="AAB100" s="28"/>
+      <c r="AAC100" s="28"/>
+      <c r="AAD100" s="28"/>
+      <c r="AAE100" s="28"/>
+      <c r="AAF100" s="28"/>
+      <c r="AAG100" s="28"/>
+      <c r="AAH100" s="28"/>
+      <c r="AAI100" s="28"/>
+      <c r="AAJ100" s="28"/>
+      <c r="AAK100" s="28"/>
+      <c r="AAL100" s="28"/>
+      <c r="AAM100" s="28"/>
+      <c r="AAN100" s="28"/>
+      <c r="AAO100" s="28"/>
+      <c r="AAP100" s="28"/>
+      <c r="AAQ100" s="28"/>
+      <c r="AAR100" s="28"/>
+      <c r="AAS100" s="28"/>
+      <c r="AAT100" s="28"/>
+      <c r="AAU100" s="28"/>
+      <c r="AAV100" s="28"/>
+      <c r="AAW100" s="28"/>
+      <c r="AAX100" s="28"/>
+      <c r="AAY100" s="28"/>
+      <c r="AAZ100" s="28"/>
+      <c r="ABA100" s="28"/>
+      <c r="ABB100" s="28"/>
+      <c r="ABC100" s="28"/>
+      <c r="ABD100" s="28"/>
+      <c r="ABE100" s="28"/>
+      <c r="ABF100" s="28"/>
+      <c r="ABG100" s="28"/>
+      <c r="ABH100" s="28"/>
+      <c r="ABI100" s="28"/>
+      <c r="ABJ100" s="28"/>
+      <c r="ABK100" s="28"/>
+      <c r="ABL100" s="28"/>
+      <c r="ABM100" s="28"/>
+      <c r="ABN100" s="28"/>
+      <c r="ABO100" s="28"/>
+      <c r="ABP100" s="28"/>
+      <c r="ABQ100" s="28"/>
+      <c r="ABR100" s="28"/>
+      <c r="ABS100" s="28"/>
+      <c r="ABT100" s="28"/>
+      <c r="ABU100" s="28"/>
+      <c r="ABV100" s="28"/>
+      <c r="ABW100" s="28"/>
+      <c r="ABX100" s="28"/>
+      <c r="ABY100" s="28"/>
+      <c r="ABZ100" s="28"/>
+      <c r="ACA100" s="28"/>
+      <c r="ACB100" s="28"/>
+      <c r="ACC100" s="28"/>
+      <c r="ACD100" s="28"/>
+      <c r="ACE100" s="28"/>
+      <c r="ACF100" s="28"/>
+      <c r="ACG100" s="28"/>
+      <c r="ACH100" s="28"/>
+      <c r="ACI100" s="28"/>
+      <c r="ACJ100" s="28"/>
+      <c r="ACK100" s="28"/>
+      <c r="ACL100" s="28"/>
+      <c r="ACM100" s="28"/>
+      <c r="ACN100" s="28"/>
+      <c r="ACO100" s="28"/>
+      <c r="ACP100" s="28"/>
+      <c r="ACQ100" s="28"/>
+      <c r="ACR100" s="28"/>
+      <c r="ACS100" s="28"/>
+      <c r="ACT100" s="28"/>
+      <c r="ACU100" s="28"/>
+      <c r="ACV100" s="28"/>
+      <c r="ACW100" s="28"/>
+      <c r="ACX100" s="28"/>
+      <c r="ACY100" s="28"/>
+      <c r="ACZ100" s="28"/>
+      <c r="ADA100" s="28"/>
+      <c r="ADB100" s="28"/>
+      <c r="ADC100" s="28"/>
+      <c r="ADD100" s="28"/>
+      <c r="ADE100" s="28"/>
+      <c r="ADF100" s="28"/>
+      <c r="ADG100" s="28"/>
+      <c r="ADH100" s="28"/>
+      <c r="ADI100" s="28"/>
+      <c r="ADJ100" s="28"/>
+      <c r="ADK100" s="28"/>
+      <c r="ADL100" s="28"/>
+      <c r="ADM100" s="28"/>
+      <c r="ADN100" s="28"/>
+      <c r="ADO100" s="28"/>
+      <c r="ADP100" s="28"/>
+      <c r="ADQ100" s="28"/>
+      <c r="ADR100" s="28"/>
+      <c r="ADS100" s="28"/>
+      <c r="ADT100" s="28"/>
+      <c r="ADU100" s="28"/>
+      <c r="ADV100" s="28"/>
+      <c r="ADW100" s="28"/>
+      <c r="ADX100" s="28"/>
+      <c r="ADY100" s="28"/>
+      <c r="ADZ100" s="28"/>
+      <c r="AEA100" s="28"/>
+      <c r="AEB100" s="28"/>
+      <c r="AEC100" s="28"/>
+      <c r="AED100" s="28"/>
+      <c r="AEE100" s="28"/>
+      <c r="AEF100" s="28"/>
+      <c r="AEG100" s="28"/>
+      <c r="AEH100" s="28"/>
+      <c r="AEI100" s="28"/>
+      <c r="AEJ100" s="28"/>
+      <c r="AEK100" s="28"/>
+      <c r="AEL100" s="28"/>
+      <c r="AEM100" s="28"/>
+      <c r="AEN100" s="28"/>
+      <c r="AEO100" s="28"/>
+      <c r="AEP100" s="28"/>
+      <c r="AEQ100" s="28"/>
+      <c r="AER100" s="28"/>
+      <c r="AES100" s="28"/>
+      <c r="AET100" s="28"/>
+      <c r="AEU100" s="28"/>
+      <c r="AEV100" s="28"/>
+      <c r="AEW100" s="28"/>
+      <c r="AEX100" s="28"/>
+      <c r="AEY100" s="28"/>
+      <c r="AEZ100" s="28"/>
+      <c r="AFA100" s="28"/>
+      <c r="AFB100" s="28"/>
+      <c r="AFC100" s="28"/>
+      <c r="AFD100" s="28"/>
+      <c r="AFE100" s="28"/>
+      <c r="AFF100" s="28"/>
+      <c r="AFG100" s="28"/>
+      <c r="AFH100" s="28"/>
+      <c r="AFI100" s="28"/>
+      <c r="AFJ100" s="28"/>
+      <c r="AFK100" s="28"/>
+      <c r="AFL100" s="28"/>
+      <c r="AFM100" s="28"/>
+      <c r="AFN100" s="28"/>
+      <c r="AFO100" s="28"/>
+      <c r="AFP100" s="28"/>
+      <c r="AFQ100" s="28"/>
+      <c r="AFR100" s="28"/>
+      <c r="AFS100" s="28"/>
+      <c r="AFT100" s="28"/>
+      <c r="AFU100" s="28"/>
+      <c r="AFV100" s="28"/>
+      <c r="AFW100" s="28"/>
+      <c r="AFX100" s="28"/>
+      <c r="AFY100" s="28"/>
+      <c r="AFZ100" s="28"/>
+      <c r="AGA100" s="28"/>
+      <c r="AGB100" s="28"/>
+      <c r="AGC100" s="28"/>
+      <c r="AGD100" s="28"/>
+      <c r="AGE100" s="28"/>
+      <c r="AGF100" s="28"/>
+      <c r="AGG100" s="28"/>
+      <c r="AGH100" s="28"/>
+      <c r="AGI100" s="28"/>
+      <c r="AGJ100" s="28"/>
+      <c r="AGK100" s="28"/>
+      <c r="AGL100" s="28"/>
+      <c r="AGM100" s="28"/>
+      <c r="AGN100" s="28"/>
+      <c r="AGO100" s="28"/>
+      <c r="AGP100" s="28"/>
+      <c r="AGQ100" s="28"/>
+      <c r="AGR100" s="28"/>
+      <c r="AGS100" s="28"/>
+      <c r="AGT100" s="28"/>
+      <c r="AGU100" s="28"/>
+      <c r="AGV100" s="28"/>
+      <c r="AGW100" s="28"/>
+      <c r="AGX100" s="28"/>
+      <c r="AGY100" s="28"/>
+      <c r="AGZ100" s="28"/>
+      <c r="AHA100" s="28"/>
+      <c r="AHB100" s="28"/>
+      <c r="AHC100" s="28"/>
+      <c r="AHD100" s="28"/>
+      <c r="AHE100" s="28"/>
+      <c r="AHF100" s="28"/>
+      <c r="AHG100" s="28"/>
+      <c r="AHH100" s="28"/>
+      <c r="AHI100" s="28"/>
+      <c r="AHJ100" s="28"/>
+      <c r="AHK100" s="28"/>
+      <c r="AHL100" s="28"/>
+      <c r="AHM100" s="28"/>
+      <c r="AHN100" s="28"/>
+      <c r="AHO100" s="28"/>
+      <c r="AHP100" s="28"/>
+      <c r="AHQ100" s="28"/>
+      <c r="AHR100" s="28"/>
+      <c r="AHS100" s="28"/>
+      <c r="AHT100" s="28"/>
+      <c r="AHU100" s="28"/>
+      <c r="AHV100" s="28"/>
+      <c r="AHW100" s="28"/>
+      <c r="AHX100" s="28"/>
+      <c r="AHY100" s="28"/>
+      <c r="AHZ100" s="28"/>
+      <c r="AIA100" s="28"/>
+      <c r="AIB100" s="28"/>
+      <c r="AIC100" s="28"/>
+      <c r="AID100" s="28"/>
+      <c r="AIE100" s="28"/>
+      <c r="AIF100" s="28"/>
+      <c r="AIG100" s="28"/>
+      <c r="AIH100" s="28"/>
+      <c r="AII100" s="28"/>
+      <c r="AIJ100" s="28"/>
+      <c r="AIK100" s="28"/>
+      <c r="AIL100" s="28"/>
+      <c r="AIM100" s="28"/>
+      <c r="AIN100" s="28"/>
+      <c r="AIO100" s="28"/>
+      <c r="AIP100" s="28"/>
+      <c r="AIQ100" s="28"/>
+      <c r="AIR100" s="28"/>
+      <c r="AIS100" s="28"/>
+      <c r="AIT100" s="28"/>
+      <c r="AIU100" s="28"/>
+      <c r="AIV100" s="28"/>
+      <c r="AIW100" s="28"/>
+      <c r="AIX100" s="28"/>
+      <c r="AIY100" s="28"/>
+      <c r="AIZ100" s="28"/>
+      <c r="AJA100" s="28"/>
+      <c r="AJB100" s="28"/>
+      <c r="AJC100" s="28"/>
+      <c r="AJD100" s="28"/>
+      <c r="AJE100" s="28"/>
+      <c r="AJF100" s="28"/>
+      <c r="AJG100" s="28"/>
+      <c r="AJH100" s="28"/>
+      <c r="AJI100" s="28"/>
+      <c r="AJJ100" s="28"/>
+      <c r="AJK100" s="28"/>
+      <c r="AJL100" s="28"/>
+      <c r="AJM100" s="28"/>
+      <c r="AJN100" s="28"/>
+      <c r="AJO100" s="28"/>
+      <c r="AJP100" s="28"/>
+      <c r="AJQ100" s="28"/>
+      <c r="AJR100" s="28"/>
+      <c r="AJS100" s="28"/>
+      <c r="AJT100" s="28"/>
+      <c r="AJU100" s="28"/>
+      <c r="AJV100" s="28"/>
+      <c r="AJW100" s="28"/>
+      <c r="AJX100" s="28"/>
+      <c r="AJY100" s="28"/>
+      <c r="AJZ100" s="28"/>
+      <c r="AKA100" s="28"/>
+      <c r="AKB100" s="28"/>
+      <c r="AKC100" s="28"/>
+      <c r="AKD100" s="28"/>
+      <c r="AKE100" s="28"/>
+      <c r="AKF100" s="28"/>
+      <c r="AKG100" s="28"/>
+      <c r="AKH100" s="28"/>
+      <c r="AKI100" s="28"/>
+      <c r="AKJ100" s="28"/>
+      <c r="AKK100" s="28"/>
+      <c r="AKL100" s="28"/>
+      <c r="AKM100" s="28"/>
+      <c r="AKN100" s="28"/>
+      <c r="AKO100" s="28"/>
+      <c r="AKP100" s="28"/>
+      <c r="AKQ100" s="28"/>
+      <c r="AKR100" s="28"/>
+      <c r="AKS100" s="28"/>
+      <c r="AKT100" s="28"/>
+      <c r="AKU100" s="28"/>
+      <c r="AKV100" s="28"/>
+      <c r="AKW100" s="28"/>
+      <c r="AKX100" s="28"/>
+      <c r="AKY100" s="28"/>
+      <c r="AKZ100" s="28"/>
+      <c r="ALA100" s="28"/>
+      <c r="ALB100" s="28"/>
+      <c r="ALC100" s="28"/>
+      <c r="ALD100" s="28"/>
+      <c r="ALE100" s="28"/>
+      <c r="ALF100" s="28"/>
+      <c r="ALG100" s="28"/>
+      <c r="ALH100" s="28"/>
+      <c r="ALI100" s="28"/>
+      <c r="ALJ100" s="28"/>
+      <c r="ALK100" s="28"/>
+      <c r="ALL100" s="28"/>
+      <c r="ALM100" s="28"/>
+      <c r="ALN100" s="28"/>
+      <c r="ALO100" s="28"/>
+      <c r="ALP100" s="28"/>
+      <c r="ALQ100" s="28"/>
+      <c r="ALR100" s="28"/>
+      <c r="ALS100" s="28"/>
+      <c r="ALT100" s="28"/>
+      <c r="ALU100" s="28"/>
+      <c r="ALV100" s="28"/>
+      <c r="ALW100" s="28"/>
+      <c r="ALX100" s="28"/>
+      <c r="ALY100" s="28"/>
+      <c r="ALZ100" s="28"/>
+      <c r="AMA100" s="28"/>
+      <c r="AMB100" s="28"/>
+      <c r="AMC100" s="28"/>
+      <c r="AMD100" s="28"/>
+      <c r="AME100" s="28"/>
+      <c r="AMF100" s="28"/>
+      <c r="AMG100" s="28"/>
+      <c r="AMH100" s="28"/>
+      <c r="AMI100" s="28"/>
+      <c r="AMJ100" s="28"/>
+      <c r="AMK100" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00001.xlsx
+++ b/GI03FLMB/Omaha_Cal_Info_GI03FLMB_00001.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\GI03FLMB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1660" windowWidth="24820" windowHeight="13320"/>
+    <workbookView xWindow="1920" yWindow="1665" windowWidth="24825" windowHeight="13320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -250,12 +255,6 @@
     <t>039° 13.81' W</t>
   </si>
   <si>
-    <t>GI03FLMB-RIM01-01-SIOENG000</t>
-  </si>
-  <si>
-    <t>GI03FLMB-RIS01-01-SIOENG000</t>
-  </si>
-  <si>
     <t>AQD 11973</t>
   </si>
   <si>
@@ -327,6 +326,12 @@
   <si>
     <t>37-12223</t>
   </si>
+  <si>
+    <t>GI03FLMB-FMM01-01-SIOENG000</t>
+  </si>
+  <si>
+    <t>GI03FLMB-FMS01-01-SIOENG000</t>
+  </si>
 </sst>
 </file>
 
@@ -394,6 +399,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -415,6 +421,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -790,6 +797,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1083,23 +1093,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
-    <col min="4" max="4" width="8.83203125" style="3"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="8.85546875" style="3"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="42">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="16" customFormat="1">
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1184,22 +1194,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21:D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="28.33203125" style="17" customWidth="1"/>
-    <col min="7" max="1025" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="31.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="28.28515625" style="17" customWidth="1"/>
+    <col min="7" max="1025" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="28">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>55</v>
       </c>
@@ -2262,7 +2272,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
@@ -3302,7 +3312,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
@@ -4340,7 +4350,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>55</v>
       </c>
@@ -5378,7 +5388,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
@@ -6416,7 +6426,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
@@ -7454,7 +7464,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>55</v>
       </c>
@@ -8494,7 +8504,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>55</v>
       </c>
@@ -9534,7 +9544,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -10574,7 +10584,7 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
@@ -11614,7 +11624,7 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
@@ -12654,7 +12664,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>73</v>
       </c>
@@ -13692,7 +13702,7 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
@@ -14730,7 +14740,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>73</v>
       </c>
@@ -15768,7 +15778,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>73</v>
       </c>
@@ -16806,7 +16816,7 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024">
+    <row r="17" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>73</v>
       </c>
@@ -17844,7 +17854,7 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024">
+    <row r="18" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>73</v>
       </c>
@@ -18884,7 +18894,7 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024">
+    <row r="19" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>39</v>
       </c>
@@ -19924,7 +19934,7 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024">
+    <row r="20" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>39</v>
       </c>
@@ -20964,7 +20974,7 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024">
+    <row r="21" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>39</v>
       </c>
@@ -22002,7 +22012,7 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024">
+    <row r="22" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>56</v>
       </c>
@@ -23042,7 +23052,7 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
@@ -24080,7 +24090,7 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024">
+    <row r="24" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>56</v>
       </c>
@@ -25118,7 +25128,7 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024">
+    <row r="25" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>56</v>
       </c>
@@ -26156,7 +26166,7 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024">
+    <row r="26" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>56</v>
       </c>
@@ -27194,7 +27204,7 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024">
+    <row r="27" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>56</v>
       </c>
@@ -28232,7 +28242,7 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024">
+    <row r="28" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>56</v>
       </c>
@@ -29270,7 +29280,7 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024">
+    <row r="29" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>56</v>
       </c>
@@ -30308,7 +30318,7 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024">
+    <row r="30" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>56</v>
       </c>
@@ -31346,7 +31356,7 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024">
+    <row r="31" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>57</v>
       </c>
@@ -31357,7 +31367,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>52</v>
@@ -32386,7 +32396,7 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024">
+    <row r="32" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
@@ -32397,7 +32407,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>40</v>
@@ -33424,7 +33434,7 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024">
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>57</v>
       </c>
@@ -33435,7 +33445,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>41</v>
@@ -34462,7 +34472,7 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>57</v>
       </c>
@@ -34473,7 +34483,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>53</v>
@@ -35500,7 +35510,7 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024">
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>58</v>
       </c>
@@ -35511,7 +35521,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>52</v>
@@ -36540,7 +36550,7 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024">
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>58</v>
       </c>
@@ -36551,7 +36561,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>40</v>
@@ -37578,7 +37588,7 @@
       <c r="AMI36"/>
       <c r="AMJ36"/>
     </row>
-    <row r="37" spans="1:1024">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>58</v>
       </c>
@@ -37589,7 +37599,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>41</v>
@@ -38616,7 +38626,7 @@
       <c r="AMI37"/>
       <c r="AMJ37"/>
     </row>
-    <row r="38" spans="1:1024">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>58</v>
       </c>
@@ -38627,7 +38637,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>53</v>
@@ -39654,7 +39664,7 @@
       <c r="AMI38"/>
       <c r="AMJ38"/>
     </row>
-    <row r="39" spans="1:1024">
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>59</v>
       </c>
@@ -39665,7 +39675,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>52</v>
@@ -40694,7 +40704,7 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>59</v>
       </c>
@@ -40705,7 +40715,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>40</v>
@@ -41732,7 +41742,7 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>59</v>
       </c>
@@ -41743,7 +41753,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>41</v>
@@ -42770,7 +42780,7 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>59</v>
       </c>
@@ -42781,7 +42791,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>53</v>
@@ -43808,7 +43818,7 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -43819,7 +43829,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>52</v>
@@ -44848,7 +44858,7 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -44859,7 +44869,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>40</v>
@@ -45886,7 +45896,7 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1024">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
@@ -45897,7 +45907,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>41</v>
@@ -46924,7 +46934,7 @@
       <c r="AMI45"/>
       <c r="AMJ45"/>
     </row>
-    <row r="46" spans="1:1024">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
@@ -46935,7 +46945,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>53</v>
@@ -47962,7 +47972,7 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1024">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>61</v>
       </c>
@@ -47973,7 +47983,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>52</v>
@@ -49002,7 +49012,7 @@
       <c r="AMI47"/>
       <c r="AMJ47"/>
     </row>
-    <row r="48" spans="1:1024">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>61</v>
       </c>
@@ -49013,7 +49023,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>40</v>
@@ -50040,7 +50050,7 @@
       <c r="AMI48"/>
       <c r="AMJ48"/>
     </row>
-    <row r="49" spans="1:1024">
+    <row r="49" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>61</v>
       </c>
@@ -50051,7 +50061,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>41</v>
@@ -51078,7 +51088,7 @@
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="1:1024">
+    <row r="50" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>61</v>
       </c>
@@ -51089,7 +51099,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>53</v>
@@ -52116,7 +52126,7 @@
       <c r="AMI50"/>
       <c r="AMJ50"/>
     </row>
-    <row r="51" spans="1:1024">
+    <row r="51" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>62</v>
       </c>
@@ -52127,7 +52137,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>52</v>
@@ -53156,7 +53166,7 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1024">
+    <row r="52" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>62</v>
       </c>
@@ -53167,7 +53177,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>40</v>
@@ -54194,7 +54204,7 @@
       <c r="AMI52"/>
       <c r="AMJ52"/>
     </row>
-    <row r="53" spans="1:1024">
+    <row r="53" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>62</v>
       </c>
@@ -54205,7 +54215,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>41</v>
@@ -55232,7 +55242,7 @@
       <c r="AMI53"/>
       <c r="AMJ53"/>
     </row>
-    <row r="54" spans="1:1024">
+    <row r="54" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>62</v>
       </c>
@@ -55243,7 +55253,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>53</v>
@@ -56270,7 +56280,7 @@
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="1:1024">
+    <row r="55" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>63</v>
       </c>
@@ -56281,7 +56291,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>52</v>
@@ -57310,7 +57320,7 @@
       <c r="AMI55"/>
       <c r="AMJ55"/>
     </row>
-    <row r="56" spans="1:1024">
+    <row r="56" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>63</v>
       </c>
@@ -57321,7 +57331,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>40</v>
@@ -58348,7 +58358,7 @@
       <c r="AMI56"/>
       <c r="AMJ56"/>
     </row>
-    <row r="57" spans="1:1024">
+    <row r="57" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>63</v>
       </c>
@@ -58359,7 +58369,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>41</v>
@@ -59386,7 +59396,7 @@
       <c r="AMI57"/>
       <c r="AMJ57"/>
     </row>
-    <row r="58" spans="1:1024">
+    <row r="58" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>63</v>
       </c>
@@ -59397,7 +59407,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>53</v>
@@ -60424,7 +60434,7 @@
       <c r="AMI58"/>
       <c r="AMJ58"/>
     </row>
-    <row r="59" spans="1:1024">
+    <row r="59" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>64</v>
       </c>
@@ -60435,7 +60445,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>52</v>
@@ -61464,7 +61474,7 @@
       <c r="AMI59"/>
       <c r="AMJ59"/>
     </row>
-    <row r="60" spans="1:1024">
+    <row r="60" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>64</v>
       </c>
@@ -61475,7 +61485,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>40</v>
@@ -62502,7 +62512,7 @@
       <c r="AMI60"/>
       <c r="AMJ60"/>
     </row>
-    <row r="61" spans="1:1024">
+    <row r="61" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>64</v>
       </c>
@@ -62513,7 +62523,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>41</v>
@@ -63540,7 +63550,7 @@
       <c r="AMI61"/>
       <c r="AMJ61"/>
     </row>
-    <row r="62" spans="1:1024">
+    <row r="62" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>64</v>
       </c>
@@ -63551,7 +63561,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>53</v>
@@ -64578,7 +64588,7 @@
       <c r="AMI62"/>
       <c r="AMJ62"/>
     </row>
-    <row r="63" spans="1:1024">
+    <row r="63" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>65</v>
       </c>
@@ -64589,7 +64599,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>52</v>
@@ -65618,7 +65628,7 @@
       <c r="AMI63"/>
       <c r="AMJ63"/>
     </row>
-    <row r="64" spans="1:1024">
+    <row r="64" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>65</v>
       </c>
@@ -65629,7 +65639,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>40</v>
@@ -66656,7 +66666,7 @@
       <c r="AMI64"/>
       <c r="AMJ64"/>
     </row>
-    <row r="65" spans="1:1025">
+    <row r="65" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>65</v>
       </c>
@@ -66667,7 +66677,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>41</v>
@@ -67694,7 +67704,7 @@
       <c r="AMI65"/>
       <c r="AMJ65"/>
     </row>
-    <row r="66" spans="1:1025">
+    <row r="66" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>65</v>
       </c>
@@ -67705,7 +67715,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>53</v>
@@ -68732,7 +68742,7 @@
       <c r="AMI66"/>
       <c r="AMJ66"/>
     </row>
-    <row r="67" spans="1:1025" s="21" customFormat="1">
+    <row r="67" spans="1:1025" s="21" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>70</v>
       </c>
@@ -68743,7 +68753,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>52</v>
@@ -68755,7 +68765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:1025">
+    <row r="68" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>70</v>
       </c>
@@ -68766,7 +68776,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>40</v>
@@ -69793,7 +69803,7 @@
       <c r="AMI68"/>
       <c r="AMJ68"/>
     </row>
-    <row r="69" spans="1:1025">
+    <row r="69" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>70</v>
       </c>
@@ -69804,7 +69814,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>41</v>
@@ -70831,7 +70841,7 @@
       <c r="AMI69"/>
       <c r="AMJ69"/>
     </row>
-    <row r="70" spans="1:1025">
+    <row r="70" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>70</v>
       </c>
@@ -70842,7 +70852,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>53</v>
@@ -71869,7 +71879,7 @@
       <c r="AMI70"/>
       <c r="AMJ70"/>
     </row>
-    <row r="71" spans="1:1025">
+    <row r="71" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>71</v>
       </c>
@@ -71880,7 +71890,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>52</v>
@@ -72909,7 +72919,7 @@
       <c r="AMI71"/>
       <c r="AMJ71"/>
     </row>
-    <row r="72" spans="1:1025">
+    <row r="72" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>71</v>
       </c>
@@ -72920,7 +72930,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>40</v>
@@ -73947,7 +73957,7 @@
       <c r="AMI72"/>
       <c r="AMJ72"/>
     </row>
-    <row r="73" spans="1:1025">
+    <row r="73" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>71</v>
       </c>
@@ -73958,7 +73968,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>41</v>
@@ -74985,7 +74995,7 @@
       <c r="AMI73"/>
       <c r="AMJ73"/>
     </row>
-    <row r="74" spans="1:1025">
+    <row r="74" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>71</v>
       </c>
@@ -74996,7 +75006,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>53</v>
@@ -76023,7 +76033,7 @@
       <c r="AMI74"/>
       <c r="AMJ74"/>
     </row>
-    <row r="75" spans="1:1025">
+    <row r="75" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>72</v>
       </c>
@@ -76034,7 +76044,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>52</v>
@@ -77063,7 +77073,7 @@
       <c r="AMI75"/>
       <c r="AMJ75"/>
     </row>
-    <row r="76" spans="1:1025">
+    <row r="76" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>72</v>
       </c>
@@ -77074,7 +77084,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>40</v>
@@ -78101,7 +78111,7 @@
       <c r="AMI76"/>
       <c r="AMJ76"/>
     </row>
-    <row r="77" spans="1:1025">
+    <row r="77" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>72</v>
       </c>
@@ -78112,7 +78122,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>41</v>
@@ -79139,7 +79149,7 @@
       <c r="AMI77"/>
       <c r="AMJ77"/>
     </row>
-    <row r="78" spans="1:1025">
+    <row r="78" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>72</v>
       </c>
@@ -79150,7 +79160,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>53</v>
@@ -80177,9 +80187,9 @@
       <c r="AMI78"/>
       <c r="AMJ78"/>
     </row>
-    <row r="79" spans="1:1025" s="30" customFormat="1">
+    <row r="79" spans="1:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B79" s="27" t="s">
         <v>12</v>
@@ -80188,7 +80198,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>52</v>
@@ -80198,9 +80208,9 @@
       </c>
       <c r="AMK79" s="28"/>
     </row>
-    <row r="80" spans="1:1025" s="30" customFormat="1">
+    <row r="80" spans="1:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80" s="27" t="s">
         <v>12</v>
@@ -80209,7 +80219,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>40</v>
@@ -80219,9 +80229,9 @@
       </c>
       <c r="AMK80" s="28"/>
     </row>
-    <row r="81" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="81" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" s="27" t="s">
         <v>12</v>
@@ -80230,7 +80240,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>41</v>
@@ -80240,9 +80250,9 @@
       </c>
       <c r="AMK81" s="28"/>
     </row>
-    <row r="82" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="82" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="27" t="s">
         <v>12</v>
@@ -80251,7 +80261,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>52</v>
@@ -80261,9 +80271,9 @@
       </c>
       <c r="AMK82" s="28"/>
     </row>
-    <row r="83" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="83" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="27" t="s">
         <v>12</v>
@@ -80272,7 +80282,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E83" s="27" t="s">
         <v>40</v>
@@ -80282,9 +80292,9 @@
       </c>
       <c r="AMK83" s="28"/>
     </row>
-    <row r="84" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="84" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="27" t="s">
         <v>12</v>
@@ -80293,7 +80303,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E84" s="27" t="s">
         <v>41</v>
@@ -80303,9 +80313,9 @@
       </c>
       <c r="AMK84" s="28"/>
     </row>
-    <row r="85" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="85" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="27" t="s">
         <v>12</v>
@@ -80314,7 +80324,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E85" s="27" t="s">
         <v>52</v>
@@ -80324,9 +80334,9 @@
       </c>
       <c r="AMK85" s="28"/>
     </row>
-    <row r="86" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="86" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="27" t="s">
         <v>12</v>
@@ -80335,7 +80345,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>40</v>
@@ -80345,9 +80355,9 @@
       </c>
       <c r="AMK86" s="28"/>
     </row>
-    <row r="87" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="87" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>12</v>
@@ -80356,7 +80366,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E87" s="27" t="s">
         <v>41</v>
@@ -80366,9 +80376,9 @@
       </c>
       <c r="AMK87" s="28"/>
     </row>
-    <row r="88" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="88" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B88" s="27" t="s">
         <v>12</v>
@@ -80377,7 +80387,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E88" s="27" t="s">
         <v>52</v>
@@ -80387,9 +80397,9 @@
       </c>
       <c r="AMK88" s="28"/>
     </row>
-    <row r="89" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="89" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B89" s="27" t="s">
         <v>12</v>
@@ -80398,7 +80408,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E89" s="27" t="s">
         <v>40</v>
@@ -80408,9 +80418,9 @@
       </c>
       <c r="AMK89" s="28"/>
     </row>
-    <row r="90" spans="1:7 1025:1025" s="30" customFormat="1">
+    <row r="90" spans="1:7 1025:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>12</v>
@@ -80419,7 +80429,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E90" s="27" t="s">
         <v>41</v>
@@ -80429,7 +80439,7 @@
       </c>
       <c r="AMK90" s="28"/>
     </row>
-    <row r="91" spans="1:7 1025:1025">
+    <row r="91" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>66</v>
       </c>
@@ -80440,7 +80450,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>40</v>
@@ -80452,7 +80462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:7 1025:1025">
+    <row r="92" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>66</v>
       </c>
@@ -80463,7 +80473,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>41</v>
@@ -80473,7 +80483,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7 1025:1025">
+    <row r="93" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>67</v>
       </c>
@@ -80484,7 +80494,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>40</v>
@@ -80496,7 +80506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7 1025:1025">
+    <row r="94" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>67</v>
       </c>
@@ -80507,7 +80517,7 @@
         <v>1</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>41</v>
@@ -80517,7 +80527,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7 1025:1025">
+    <row r="95" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>68</v>
       </c>
@@ -80528,7 +80538,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>40</v>
@@ -80540,7 +80550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7 1025:1025">
+    <row r="96" spans="1:7 1025:1025" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>68</v>
       </c>
@@ -80551,7 +80561,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>41</v>
@@ -80561,7 +80571,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:1025">
+    <row r="97" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>69</v>
       </c>
@@ -80572,7 +80582,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>40</v>
@@ -80584,7 +80594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:1025">
+    <row r="98" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>69</v>
       </c>
@@ -80595,7 +80605,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>41</v>
@@ -80605,9 +80615,9 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:1025">
-      <c r="A99" s="27" t="s">
-        <v>76</v>
+    <row r="99" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>12</v>
@@ -80624,9 +80634,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:1025" s="30" customFormat="1">
-      <c r="A100" s="28" t="s">
-        <v>77</v>
+    <row r="100" spans="1:1025" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="B100" s="27" t="s">
         <v>12</v>
